--- a/assets/excel/pincode_import.xlsx
+++ b/assets/excel/pincode_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navin\Desktop\desk_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7B09F7-8DF9-4736-87F9-912B29F567DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4045636-055D-403B-8596-19217308C522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="4956" windowWidth="17052" windowHeight="8964" xr2:uid="{988653A9-9114-4693-9A93-0B29A4F91649}"/>
+    <workbookView xWindow="2916" yWindow="2304" windowWidth="17052" windowHeight="8964" xr2:uid="{988653A9-9114-4693-9A93-0B29A4F91649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
   <si>
     <t>Country code</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Country Phone Code</t>
+  </si>
+  <si>
+    <t>Country Type</t>
+  </si>
+  <si>
+    <t>State GST code</t>
   </si>
 </sst>
 </file>
@@ -105,8 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B82D14-2B0D-4F18-951C-5B8E51C4CDF9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,48 +449,486 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="C2" s="1">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
         <v>560010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>560010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>560011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>560012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>560013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>560013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>560014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>560014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>560015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>560016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>560017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>560018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>560079</v>
       </c>
     </row>
   </sheetData>
